--- a/testFiles/Excel_模板1.xlsx
+++ b/testFiles/Excel_模板1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\NodeJS\excel-to-word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\NodeJS\excel-to-word-web\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885143D-1119-430F-AA1F-8C1F6F25BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D5C8E-DC5A-4C20-B2E7-746C11D72BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="1155" windowWidth="18285" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,19 @@
     <t>電話</t>
   </si>
   <si>
-    <t>#` ${data.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#` ${data.tel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#! END_ROW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#! FINISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#` ${data.my_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#` ${data.my_tel}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -444,26 +444,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/testFiles/Excel_模板1.xlsx
+++ b/testFiles/Excel_模板1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\NodeJS\excel-to-word-web\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7D5C8E-DC5A-4C20-B2E7-746C11D72BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4963D1A-B147-4B3B-B8CF-983767D4735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
   </si>
@@ -36,11 +36,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#` ${data.my_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#` ${data.my_tel}</t>
+    <t>#` ${my_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#` ${my_tel}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#` ${my_money}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,20 +434,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,12 +463,18 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
     </row>
